--- a/Files/Madden24/IE/Season1/RegressionValues.xlsx
+++ b/Files/Madden24/IE/Season1/RegressionValues.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/maddenstats/Files/Madden24/IE/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden24/IE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6F22462-9150-4EC9-905F-D040D6ED1D28}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7757C04B-8A32-40F9-9FD7-2A11F374B5D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegressionValues" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RegressionValues!$A$1:$C$147</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
   <si>
     <t>Position</t>
   </si>
@@ -34,13 +37,7 @@
     <t>QB</t>
   </si>
   <si>
-    <t>35-50</t>
-  </si>
-  <si>
     <t>HB</t>
-  </si>
-  <si>
-    <t>32-50</t>
   </si>
   <si>
     <t>WR</t>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>LT</t>
-  </si>
-  <si>
-    <t>36-50</t>
   </si>
   <si>
     <t>LG</t>
@@ -101,9 +95,6 @@
   </si>
   <si>
     <t>FB</t>
-  </si>
-  <si>
-    <t>30-50</t>
   </si>
 </sst>
 </file>
@@ -648,6 +639,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,13 +962,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,52 +988,52 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1">
+        <v>36</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1044,21 +1041,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -1066,87 +1063,87 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -1154,43 +1151,43 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>33</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1198,131 +1195,131 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -1330,21 +1327,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
@@ -1352,65 +1349,65 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -1418,21 +1415,21 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>34</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
@@ -1440,65 +1437,65 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
         <v>4</v>
@@ -1506,21 +1503,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B50" s="1">
+        <v>34</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -1528,65 +1525,65 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1">
         <v>4</v>
@@ -1594,21 +1591,21 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B58" s="1">
+        <v>34</v>
       </c>
       <c r="C58" s="1">
         <v>4</v>
@@ -1616,65 +1613,65 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B60" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B61" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C61" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B62" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B63" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1">
         <v>4</v>
@@ -1682,21 +1679,21 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B66" s="1">
+        <v>34</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>
@@ -1704,21 +1701,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B67" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C68" s="1">
         <v>4</v>
@@ -1726,32 +1723,32 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1">
         <v>6</v>
@@ -1759,32 +1756,32 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B74" s="1">
+        <v>33</v>
       </c>
       <c r="C74" s="1">
         <v>4</v>
@@ -1792,21 +1789,21 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B75" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C76" s="1">
         <v>4</v>
@@ -1814,32 +1811,32 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C77" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B78" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1">
         <v>6</v>
@@ -1847,32 +1844,32 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C80" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C81" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B82" s="1">
+        <v>33</v>
       </c>
       <c r="C82" s="1">
         <v>4</v>
@@ -1880,21 +1877,21 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B84" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1">
         <v>4</v>
@@ -1902,32 +1899,32 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B85" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B86" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B87" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1">
         <v>6</v>
@@ -1935,32 +1932,32 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B88" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C88" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B89" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C89" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B90" s="1">
+        <v>33</v>
       </c>
       <c r="C90" s="1">
         <v>4</v>
@@ -1968,43 +1965,43 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B91" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C91" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B92" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C92" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C93" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B94" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C94" s="1">
         <v>4</v>
@@ -2012,10 +2009,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B95" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1">
         <v>6</v>
@@ -2023,10 +2020,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B96" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C96" s="1">
         <v>4</v>
@@ -2034,21 +2031,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B97" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B98" s="1">
+        <v>33</v>
       </c>
       <c r="C98" s="1">
         <v>4</v>
@@ -2056,43 +2053,43 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B99" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C99" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B100" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B101" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C101" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B102" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C102" s="1">
         <v>4</v>
@@ -2100,10 +2097,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B103" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C103" s="1">
         <v>6</v>
@@ -2111,10 +2108,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B104" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C104" s="1">
         <v>4</v>
@@ -2122,21 +2119,21 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B105" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B106" s="1">
+        <v>33</v>
       </c>
       <c r="C106" s="1">
         <v>4</v>
@@ -2144,43 +2141,43 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B107" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C107" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B108" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C108" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B109" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C109" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B110" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C110" s="1">
         <v>4</v>
@@ -2188,10 +2185,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B111" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C111" s="1">
         <v>6</v>
@@ -2199,10 +2196,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B112" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -2210,21 +2207,21 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B113" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B114" s="1">
+        <v>33</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>
@@ -2232,21 +2229,21 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B115" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C115" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B116" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C116" s="1">
         <v>4</v>
@@ -2254,21 +2251,21 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B117" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C117" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B118" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C118" s="1">
         <v>5</v>
@@ -2276,10 +2273,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B119" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C119" s="1">
         <v>6</v>
@@ -2287,10 +2284,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B120" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C120" s="1">
         <v>5</v>
@@ -2298,43 +2295,43 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B121" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C121" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B122" s="1">
+        <v>33</v>
       </c>
       <c r="C122" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B123" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C123" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B124" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C124" s="1">
         <v>4</v>
@@ -2342,65 +2339,65 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B125" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C125" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B126" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C126" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B127" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C127" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B128" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C128" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B129" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C129" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="B130" s="1">
+        <v>33</v>
       </c>
       <c r="C130" s="1">
         <v>4</v>
@@ -2408,21 +2405,21 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B131" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C131" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B132" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C132" s="1">
         <v>4</v>
@@ -2430,65 +2427,65 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B133" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C133" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B134" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C134" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B135" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C135" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B136" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C136" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B137" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C137" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B138" s="1">
+        <v>33</v>
       </c>
       <c r="C138" s="1">
         <v>4</v>
@@ -2496,35 +2493,123 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B139" s="1">
+        <v>34</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B140" s="1">
+        <v>35</v>
       </c>
       <c r="C140" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B141" s="1">
+        <v>36</v>
       </c>
       <c r="C141" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" s="1">
+        <v>38</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="1">
+        <v>40</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="1">
+        <v>36</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" s="1">
+        <v>38</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="1">
+        <v>40</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="1">
+        <v>30</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="1">
+        <v>32</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="1">
+        <v>34</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Madden24/IE/Season1/RegressionValues.xlsx
+++ b/Files/Madden24/IE/Season1/RegressionValues.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden24/IE/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden24/IE/Season1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7757C04B-8A32-40F9-9FD7-2A11F374B5D2}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEA6218-0F46-460A-895F-96FDB6CFC9F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegressionValues" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RegressionValues!$A$1:$C$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RegressionValues!$A$1:$C$142</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
   <si>
     <t>Position</t>
   </si>
@@ -639,10 +639,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -962,7 +958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -989,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,18 +996,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1022,10 +1018,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,10 +1029,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1066,10 +1062,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1077,10 +1073,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,21 +1084,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,10 +1106,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1132,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -1143,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -1154,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -1165,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1176,21 +1172,21 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,10 +1205,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,10 +1216,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,10 +1227,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,10 +1238,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,10 +1249,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,21 +1260,21 @@
         <v>6</v>
       </c>
       <c r="B27" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,10 +1282,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,10 +1293,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B31" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,10 +1315,10 @@
         <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,10 +1326,10 @@
         <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,10 +1337,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,21 +1348,21 @@
         <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,10 +1370,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,10 +1381,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,10 +1392,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,10 +1403,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,10 +1414,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,10 +1425,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,21 +1436,21 @@
         <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,10 +1458,10 @@
         <v>9</v>
       </c>
       <c r="B45" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,10 +1469,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,10 +1480,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,10 +1491,10 @@
         <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,10 +1502,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1517,10 +1513,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1528,21 +1524,21 @@
         <v>9</v>
       </c>
       <c r="B51" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,10 +1568,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,10 +1579,10 @@
         <v>10</v>
       </c>
       <c r="B56" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="B57" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,10 +1601,10 @@
         <v>10</v>
       </c>
       <c r="B58" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,21 +1612,21 @@
         <v>10</v>
       </c>
       <c r="B59" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C60" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,10 +1634,10 @@
         <v>11</v>
       </c>
       <c r="B61" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,10 +1645,10 @@
         <v>11</v>
       </c>
       <c r="B62" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1660,10 +1656,10 @@
         <v>11</v>
       </c>
       <c r="B63" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1671,10 +1667,10 @@
         <v>11</v>
       </c>
       <c r="B64" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1682,10 +1678,10 @@
         <v>11</v>
       </c>
       <c r="B65" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1693,10 +1689,10 @@
         <v>11</v>
       </c>
       <c r="B66" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1704,21 +1700,21 @@
         <v>11</v>
       </c>
       <c r="B67" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B68" s="1">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,10 +1722,10 @@
         <v>12</v>
       </c>
       <c r="B69" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1737,10 +1733,10 @@
         <v>12</v>
       </c>
       <c r="B70" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1748,10 +1744,10 @@
         <v>12</v>
       </c>
       <c r="B71" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,10 +1755,10 @@
         <v>12</v>
       </c>
       <c r="B72" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1770,10 +1766,10 @@
         <v>12</v>
       </c>
       <c r="B73" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,10 +1777,10 @@
         <v>12</v>
       </c>
       <c r="B74" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C74" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,21 +1788,21 @@
         <v>12</v>
       </c>
       <c r="B75" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B76" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C76" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,10 +1810,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,10 +1821,10 @@
         <v>13</v>
       </c>
       <c r="B78" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C78" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,10 +1832,10 @@
         <v>13</v>
       </c>
       <c r="B79" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C79" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1847,10 +1843,10 @@
         <v>13</v>
       </c>
       <c r="B80" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,10 +1854,10 @@
         <v>13</v>
       </c>
       <c r="B81" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C81" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1869,10 +1865,10 @@
         <v>13</v>
       </c>
       <c r="B82" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C82" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,21 +1876,21 @@
         <v>13</v>
       </c>
       <c r="B83" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,10 +1898,10 @@
         <v>14</v>
       </c>
       <c r="B85" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,10 +1909,10 @@
         <v>14</v>
       </c>
       <c r="B86" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,10 +1920,10 @@
         <v>14</v>
       </c>
       <c r="B87" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C87" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,10 +1931,10 @@
         <v>14</v>
       </c>
       <c r="B88" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C88" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,10 +1942,10 @@
         <v>14</v>
       </c>
       <c r="B89" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C89" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,10 +1953,10 @@
         <v>14</v>
       </c>
       <c r="B90" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C90" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1968,21 +1964,21 @@
         <v>14</v>
       </c>
       <c r="B91" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C92" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,10 +1986,10 @@
         <v>15</v>
       </c>
       <c r="B93" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C93" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,10 +1997,10 @@
         <v>15</v>
       </c>
       <c r="B94" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,10 +2008,10 @@
         <v>15</v>
       </c>
       <c r="B95" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C95" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2023,10 +2019,10 @@
         <v>15</v>
       </c>
       <c r="B96" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C96" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,10 +2030,10 @@
         <v>15</v>
       </c>
       <c r="B97" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C97" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,10 +2041,10 @@
         <v>15</v>
       </c>
       <c r="B98" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C98" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,21 +2052,21 @@
         <v>15</v>
       </c>
       <c r="B99" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B100" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C100" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,10 +2074,10 @@
         <v>16</v>
       </c>
       <c r="B101" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,10 +2085,10 @@
         <v>16</v>
       </c>
       <c r="B102" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C102" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,10 +2096,10 @@
         <v>16</v>
       </c>
       <c r="B103" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C103" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,10 +2107,10 @@
         <v>16</v>
       </c>
       <c r="B104" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C104" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,10 +2118,10 @@
         <v>16</v>
       </c>
       <c r="B105" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C105" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,10 +2129,10 @@
         <v>16</v>
       </c>
       <c r="B106" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C106" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,21 +2140,21 @@
         <v>16</v>
       </c>
       <c r="B107" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B108" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C108" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,10 +2162,10 @@
         <v>17</v>
       </c>
       <c r="B109" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C109" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,10 +2173,10 @@
         <v>17</v>
       </c>
       <c r="B110" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C110" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,10 +2184,10 @@
         <v>17</v>
       </c>
       <c r="B111" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C111" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,10 +2195,10 @@
         <v>17</v>
       </c>
       <c r="B112" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C112" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2210,10 +2206,10 @@
         <v>17</v>
       </c>
       <c r="B113" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C113" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,10 +2217,10 @@
         <v>17</v>
       </c>
       <c r="B114" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C114" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,21 +2228,21 @@
         <v>17</v>
       </c>
       <c r="B115" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C115" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B116" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C116" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2254,10 +2250,10 @@
         <v>18</v>
       </c>
       <c r="B117" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C117" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,10 +2261,10 @@
         <v>18</v>
       </c>
       <c r="B118" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C118" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,10 +2272,10 @@
         <v>18</v>
       </c>
       <c r="B119" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C119" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2287,10 +2283,10 @@
         <v>18</v>
       </c>
       <c r="B120" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C120" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,10 +2294,10 @@
         <v>18</v>
       </c>
       <c r="B121" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C121" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,10 +2305,10 @@
         <v>18</v>
       </c>
       <c r="B122" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C122" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,21 +2316,21 @@
         <v>18</v>
       </c>
       <c r="B123" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C123" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B124" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C124" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,10 +2338,10 @@
         <v>19</v>
       </c>
       <c r="B125" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C125" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,10 +2349,10 @@
         <v>19</v>
       </c>
       <c r="B126" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C126" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,10 +2360,10 @@
         <v>19</v>
       </c>
       <c r="B127" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C127" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,10 +2371,10 @@
         <v>19</v>
       </c>
       <c r="B128" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C128" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,10 +2382,10 @@
         <v>19</v>
       </c>
       <c r="B129" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C129" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,10 +2393,10 @@
         <v>19</v>
       </c>
       <c r="B130" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C130" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,21 +2404,21 @@
         <v>19</v>
       </c>
       <c r="B131" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C131" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B132" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C132" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,10 +2426,10 @@
         <v>20</v>
       </c>
       <c r="B133" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C133" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2441,10 +2437,10 @@
         <v>20</v>
       </c>
       <c r="B134" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C134" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,10 +2448,10 @@
         <v>20</v>
       </c>
       <c r="B135" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C135" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2463,10 +2459,10 @@
         <v>20</v>
       </c>
       <c r="B136" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C136" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,10 +2470,10 @@
         <v>20</v>
       </c>
       <c r="B137" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C137" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,10 +2481,10 @@
         <v>20</v>
       </c>
       <c r="B138" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C138" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2496,29 +2492,29 @@
         <v>20</v>
       </c>
       <c r="B139" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C139" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B140" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C140" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B141" s="1">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C141" s="1">
         <v>2</v>
@@ -2526,89 +2522,12 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B142" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C142" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B143" s="1">
-        <v>40</v>
-      </c>
-      <c r="C143" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B144" s="1">
-        <v>36</v>
-      </c>
-      <c r="C144" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B145" s="1">
-        <v>38</v>
-      </c>
-      <c r="C145" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B146" s="1">
-        <v>40</v>
-      </c>
-      <c r="C146" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B147" s="1">
-        <v>30</v>
-      </c>
-      <c r="C147" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B148" s="1">
-        <v>32</v>
-      </c>
-      <c r="C148" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="1">
-        <v>34</v>
-      </c>
-      <c r="C149" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Files/Madden24/IE/Season1/RegressionValues.xlsx
+++ b/Files/Madden24/IE/Season1/RegressionValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden24/IE/Season1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEA6218-0F46-460A-895F-96FDB6CFC9F3}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA5918B2-A3EC-4EDD-AEB3-4AD0742F9BEF}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegressionValues" sheetId="1" r:id="rId1"/>
@@ -639,6 +639,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,7 +964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1131,7 +1137,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1285,7 +1291,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +1379,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1467,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1555,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,7 +1643,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,7 +1775,7 @@
         <v>33</v>
       </c>
       <c r="C73" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,7 +1863,7 @@
         <v>33</v>
       </c>
       <c r="C81" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,7 +1951,7 @@
         <v>33</v>
       </c>
       <c r="C89" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1989,7 +1995,7 @@
         <v>29</v>
       </c>
       <c r="C93" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2077,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="C101" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,7 +2171,7 @@
         <v>29</v>
       </c>
       <c r="C109" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2341,7 +2347,7 @@
         <v>29</v>
       </c>
       <c r="C125" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,7 +2435,7 @@
         <v>29</v>
       </c>
       <c r="C133" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">

--- a/Files/Madden24/IE/Season1/RegressionValues.xlsx
+++ b/Files/Madden24/IE/Season1/RegressionValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden24/IE/Season1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA5918B2-A3EC-4EDD-AEB3-4AD0742F9BEF}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC101195-B343-4649-B450-6904F0CE964F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,9 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1126,7 +1124,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1159,7 +1157,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,7 +2257,7 @@
         <v>29</v>
       </c>
       <c r="C117" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
